--- a/hisob/Sertifikat ro'yxati 2022.xlsx
+++ b/hisob/Sertifikat ro'yxati 2022.xlsx
@@ -16,19 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>T/R</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="204"/>
-      </rPr>
       <t>F.I.O(</t>
     </r>
     <r>
@@ -136,7 +129,13 @@
     <t>90 553 12 26</t>
   </si>
   <si>
-    <t>Akbarov Alisher</t>
+    <t>Akbarov Alisherxon Akram o'g'li</t>
+  </si>
+  <si>
+    <t>19/01/2005</t>
+  </si>
+  <si>
+    <t>AD 0428657</t>
   </si>
   <si>
     <t>91 292 12 66</t>
@@ -156,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -200,7 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,19 +208,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,53 +236,62 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,29 +306,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -327,24 +320,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,181 +377,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,21 +589,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +632,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -659,15 +667,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,152 +693,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -872,8 +871,11 @@
     <xf numFmtId="58" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1236,7 +1238,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5"/>
@@ -1307,7 +1309,7 @@
       <c r="H2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1336,7 +1338,7 @@
       <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1347,11 +1349,15 @@
       <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
@@ -1361,8 +1367,8 @@
       <c r="H4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>21</v>
+      <c r="I4" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:9">
@@ -1370,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="8">
         <v>39245</v>
@@ -1379,7 +1385,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>13</v>
@@ -1390,22 +1396,22 @@
       <c r="H5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>24</v>
+      <c r="I5" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:9">
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="16"/>
+      <c r="I6" s="17"/>
     </row>
   </sheetData>
   <sortState ref="B2:I11">
